--- a/framework/datasource/DataDriven.xlsx
+++ b/framework/datasource/DataDriven.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Cabrera\workspace\jagdpanther01\src\framework\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Cabrera\workspace\jagdpanther01\src\framework\datasource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -34,24 +34,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>fsdfds</t>
-  </si>
-  <si>
-    <t>fdsfdsagdf</t>
-  </si>
-  <si>
-    <t>sdgdfhrteh</t>
-  </si>
-  <si>
-    <t>fdgdfs</t>
-  </si>
-  <si>
-    <t>sdgffdgdfs</t>
-  </si>
-  <si>
-    <t>fdgdsfdf</t>
-  </si>
-  <si>
     <t>programName</t>
   </si>
   <si>
@@ -109,13 +91,19 @@
     <t>33</t>
   </si>
   <si>
-    <t>2014-08-31</t>
-  </si>
-  <si>
-    <t>2014-08-29</t>
-  </si>
-  <si>
-    <t>2014-08-28</t>
+    <t>stage1</t>
+  </si>
+  <si>
+    <t>stage2</t>
+  </si>
+  <si>
+    <t>stagetitle</t>
+  </si>
+  <si>
+    <t>new stage</t>
+  </si>
+  <si>
+    <t>20/8/2015</t>
   </si>
 </sst>
 </file>
@@ -154,8 +142,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +427,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -457,24 +445,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -488,58 +476,58 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
+      <c r="A2" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -548,53 +536,53 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
